--- a/ResultData.xlsx
+++ b/ResultData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -32,43 +32,211 @@
     <t>Total</t>
   </si>
   <si>
-    <t>RITIKA MOGHA</t>
-  </si>
-  <si>
-    <t>0513554</t>
-  </si>
-  <si>
-    <t>VINOD MOGHA</t>
-  </si>
-  <si>
-    <t>MANGLESH MOGHA</t>
+    <t>FARMAN</t>
+  </si>
+  <si>
+    <t>0513581</t>
+  </si>
+  <si>
+    <t>MD IRFAN</t>
+  </si>
+  <si>
+    <t>SHAHIDA</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>ROOPAL RANI</t>
-  </si>
-  <si>
-    <t>0513555</t>
-  </si>
-  <si>
-    <t>MUNENDRA KUMAR</t>
-  </si>
-  <si>
-    <t>SARLA DEVI</t>
-  </si>
-  <si>
-    <t>SABIYA</t>
-  </si>
-  <si>
-    <t>0513556</t>
-  </si>
-  <si>
-    <t>NASIR KHAN</t>
-  </si>
-  <si>
-    <t>NAHIDA</t>
+    <t>HARENDRA AARYA</t>
+  </si>
+  <si>
+    <t>0513582</t>
+  </si>
+  <si>
+    <t>SHRI PARAHLAD</t>
+  </si>
+  <si>
+    <t>MANORI DEVI</t>
+  </si>
+  <si>
+    <t>HARIT ARYA</t>
+  </si>
+  <si>
+    <t>0513583</t>
+  </si>
+  <si>
+    <t>SHRI VIKRAM SINGH</t>
+  </si>
+  <si>
+    <t>SAROJ DEVI</t>
+  </si>
+  <si>
+    <t>MD DAOOD</t>
+  </si>
+  <si>
+    <t>0513585</t>
+  </si>
+  <si>
+    <t>SALEEM JAVED</t>
+  </si>
+  <si>
+    <t>SAYRA BEGAM</t>
+  </si>
+  <si>
+    <t>NAWAB</t>
+  </si>
+  <si>
+    <t>0513587</t>
+  </si>
+  <si>
+    <t>TOUFIK</t>
+  </si>
+  <si>
+    <t>BASTO</t>
+  </si>
+  <si>
+    <t>ROBIN CHAUHAN</t>
+  </si>
+  <si>
+    <t>0513588</t>
+  </si>
+  <si>
+    <t>SHRI DARSHAN SINGH</t>
+  </si>
+  <si>
+    <t>MUNESH DEVI</t>
+  </si>
+  <si>
+    <t>SAJID KHAN</t>
+  </si>
+  <si>
+    <t>0513589</t>
+  </si>
+  <si>
+    <t>MD IKRAM KHAN</t>
+  </si>
+  <si>
+    <t>SAHIDA</t>
+  </si>
+  <si>
+    <t>SARAL KUMAR</t>
+  </si>
+  <si>
+    <t>0513590</t>
+  </si>
+  <si>
+    <t>SHRI JITENDRA KUMAR</t>
+  </si>
+  <si>
+    <t>SUNITA DEVI</t>
+  </si>
+  <si>
+    <t>SHAHRUKH</t>
+  </si>
+  <si>
+    <t>0513591</t>
+  </si>
+  <si>
+    <t>MURSALIN</t>
+  </si>
+  <si>
+    <t>AFSANA</t>
+  </si>
+  <si>
+    <t>SHUBHAM KUMAR</t>
+  </si>
+  <si>
+    <t>0513592</t>
+  </si>
+  <si>
+    <t>SHRI PARDEEP KUMAR</t>
+  </si>
+  <si>
+    <t>SUDESH DEVI</t>
+  </si>
+  <si>
+    <t>TALIB</t>
+  </si>
+  <si>
+    <t>0513593</t>
+  </si>
+  <si>
+    <t>MD MAHBOOB KHAN</t>
+  </si>
+  <si>
+    <t>SHABANA BEGAM</t>
+  </si>
+  <si>
+    <t>UMER KHAN</t>
+  </si>
+  <si>
+    <t>0513594</t>
+  </si>
+  <si>
+    <t>MD MAHFOOJ KHAN</t>
+  </si>
+  <si>
+    <t>RUKHSANA BEGAM</t>
+  </si>
+  <si>
+    <t>VISHAL KUNDU</t>
+  </si>
+  <si>
+    <t>0513595</t>
+  </si>
+  <si>
+    <t>SHRI SURESH SINGH</t>
+  </si>
+  <si>
+    <t>NEELAM DEVI</t>
+  </si>
+  <si>
+    <t>AAYUSHI</t>
+  </si>
+  <si>
+    <t>0513596</t>
+  </si>
+  <si>
+    <t>SHRI AASHISH KUMAR</t>
+  </si>
+  <si>
+    <t>MAMTA DEVI</t>
+  </si>
+  <si>
+    <t>GUDHAL DUHOON</t>
+  </si>
+  <si>
+    <t>0513597</t>
+  </si>
+  <si>
+    <t>SHRI NAGENDRA</t>
+  </si>
+  <si>
+    <t>ANITA DEVI</t>
+  </si>
+  <si>
+    <t>NEHA</t>
+  </si>
+  <si>
+    <t>0513598</t>
+  </si>
+  <si>
+    <t>SHRI BHAGAT SINGH</t>
+  </si>
+  <si>
+    <t>SAVITA DEVI</t>
+  </si>
+  <si>
+    <t>RAKHI</t>
+  </si>
+  <si>
+    <t>0513599</t>
+  </si>
+  <si>
+    <t>SHRI VINAY KUMAR</t>
+  </si>
+  <si>
+    <t>SUMAN DEVI</t>
   </si>
 </sst>
 </file>
@@ -126,10 +294,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.69140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.94921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.46484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.24609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.70703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.44140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.58984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.5625" customWidth="true" bestFit="true"/>
   </cols>
@@ -155,63 +323,373 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" t="n">
-        <v>525.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>462.0</v>
+        <v>397.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>424.0</v>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>433.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>436.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>345.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>409.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>435.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>390.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>352.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>356.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>386.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>360.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>385.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>456.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>402.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>413.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>370.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultData.xlsx
+++ b/ResultData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -30,33 +30,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>FARMAN</t>
-  </si>
-  <si>
-    <t>0513581</t>
-  </si>
-  <si>
-    <t>MD IRFAN</t>
-  </si>
-  <si>
-    <t>SHAHIDA</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>HARENDRA AARYA</t>
-  </si>
-  <si>
-    <t>0513582</t>
-  </si>
-  <si>
-    <t>SHRI PARAHLAD</t>
-  </si>
-  <si>
-    <t>MANORI DEVI</t>
   </si>
 </sst>
 </file>
@@ -114,9 +87,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.7734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.36328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.98046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.0234375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.0" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.58984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.5625" customWidth="true" bestFit="true"/>
@@ -153,43 +126,93 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="n">
-        <v>397.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultData.xlsx
+++ b/ResultData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -30,6 +30,57 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>AAKASH</t>
+  </si>
+  <si>
+    <t>0594818</t>
+  </si>
+  <si>
+    <t>RAMESH CHAND</t>
+  </si>
+  <si>
+    <t>AMRESH</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0594819</t>
+  </si>
+  <si>
+    <t>OMBEER</t>
+  </si>
+  <si>
+    <t>KUSUM</t>
+  </si>
+  <si>
+    <t>F&amp;E.CRDT</t>
+  </si>
+  <si>
+    <t>AAMIR KHAN</t>
+  </si>
+  <si>
+    <t>0594820</t>
+  </si>
+  <si>
+    <t>MANJUR HASAN</t>
+  </si>
+  <si>
+    <t>SHAHIDA KHATUN</t>
+  </si>
+  <si>
+    <t>AARIF</t>
+  </si>
+  <si>
+    <t>0594821</t>
+  </si>
+  <si>
+    <t>YUNUS</t>
+  </si>
+  <si>
+    <t>ANISHA</t>
   </si>
 </sst>
 </file>
@@ -86,6 +137,14 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="12.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.92578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.4296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.96875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.5625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -107,6 +166,86 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>295.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>227.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>312.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>262.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ResultData.xlsx
+++ b/ResultData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -30,6 +30,186 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>MUSKAN</t>
+  </si>
+  <si>
+    <t>0513616</t>
+  </si>
+  <si>
+    <t>IRSHAD</t>
+  </si>
+  <si>
+    <t>ANWARI</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>MUSKAN MALIK</t>
+  </si>
+  <si>
+    <t>0513617</t>
+  </si>
+  <si>
+    <t>NAFEES</t>
+  </si>
+  <si>
+    <t>FIRDOSH</t>
+  </si>
+  <si>
+    <t>0513618</t>
+  </si>
+  <si>
+    <t>SHARAFAT</t>
+  </si>
+  <si>
+    <t>MUDI</t>
+  </si>
+  <si>
+    <t>NAZIYA</t>
+  </si>
+  <si>
+    <t>0513619</t>
+  </si>
+  <si>
+    <t>ASAD ALI</t>
+  </si>
+  <si>
+    <t>ANWARI KHATOON</t>
+  </si>
+  <si>
+    <t>NAZMA</t>
+  </si>
+  <si>
+    <t>0513620</t>
+  </si>
+  <si>
+    <t>MOH ASLAM</t>
+  </si>
+  <si>
+    <t>SHEHNAAZ</t>
+  </si>
+  <si>
+    <t>NISHA SHAKYA</t>
+  </si>
+  <si>
+    <t>0513621</t>
+  </si>
+  <si>
+    <t>DARBARILAL SHAKYA</t>
+  </si>
+  <si>
+    <t>RAJNI SHAKYA</t>
+  </si>
+  <si>
+    <t>POOJA</t>
+  </si>
+  <si>
+    <t>0513622</t>
+  </si>
+  <si>
+    <t>RAKESH KUMAR</t>
+  </si>
+  <si>
+    <t>MANJU</t>
+  </si>
+  <si>
+    <t>PRACHI VERMA</t>
+  </si>
+  <si>
+    <t>0513623</t>
+  </si>
+  <si>
+    <t>SANJEEV VERMA</t>
+  </si>
+  <si>
+    <t>MANORMA</t>
+  </si>
+  <si>
+    <t>ABST</t>
+  </si>
+  <si>
+    <t>PREETI</t>
+  </si>
+  <si>
+    <t>0513624</t>
+  </si>
+  <si>
+    <t>SUBHASH CHANDER</t>
+  </si>
+  <si>
+    <t>JAGRESH DEVI</t>
+  </si>
+  <si>
+    <t>RENU</t>
+  </si>
+  <si>
+    <t>0513625</t>
+  </si>
+  <si>
+    <t>SUDHIR KUMAR</t>
+  </si>
+  <si>
+    <t>SUMAN DEVI</t>
+  </si>
+  <si>
+    <t>RUKHSAR</t>
+  </si>
+  <si>
+    <t>0513626</t>
+  </si>
+  <si>
+    <t>FIROJ KHAN</t>
+  </si>
+  <si>
+    <t>SHABANAM</t>
+  </si>
+  <si>
+    <t>0513627</t>
+  </si>
+  <si>
+    <t>MOH ABDULLA</t>
+  </si>
+  <si>
+    <t>HASINA</t>
+  </si>
+  <si>
+    <t>SABIYA</t>
+  </si>
+  <si>
+    <t>0513628</t>
+  </si>
+  <si>
+    <t>KASIM ALI</t>
+  </si>
+  <si>
+    <t>ABIDA KHATOON</t>
+  </si>
+  <si>
+    <t>SAMREEN</t>
+  </si>
+  <si>
+    <t>0513629</t>
+  </si>
+  <si>
+    <t>MOHD FIROJ AHMAD KHAN</t>
+  </si>
+  <si>
+    <t>RUKSANA KHATOON</t>
+  </si>
+  <si>
+    <t>SANA</t>
+  </si>
+  <si>
+    <t>0513630</t>
+  </si>
+  <si>
+    <t>AKRAM</t>
+  </si>
+  <si>
+    <t>REHNUMA</t>
   </si>
 </sst>
 </file>
@@ -86,6 +266,14 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.44921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.89453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.5625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -107,6 +295,306 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>436.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>447.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>472.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>464.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>436.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>397.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>372.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>166.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>432.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>340.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>441.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>372.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>434.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>418.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>397.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
